--- a/biology/Médecine/Jean_Murat_(professeur)/Jean_Murat_(professeur).xlsx
+++ b/biology/Médecine/Jean_Murat_(professeur)/Jean_Murat_(professeur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Eugène Murat, né à Lyon le 4 décembre 1934 est un professeur de médecine (chirurgie), général (CR) de l'armée française et commandeur de la Légion d'honneur[1],[2]. Il est l'auteur ou le coauteur de nombreux ouvrages[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Eugène Murat, né à Lyon le 4 décembre 1934 est un professeur de médecine (chirurgie), général (CR) de l'armée française et commandeur de la Légion d'honneur,. Il est l'auteur ou le coauteur de nombreux ouvrages.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Le professeur de médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est à Lyon que Jean E. Murat entreprend ses études de médecine, et devient interne des Hôpitaux de Lyon dès 1958. Il se spécialise dans la médecine en situation d’urgence (SAMU), dont il est l’un des pionniers internationalement reconnus.
 Il poursuit, à partir de 1961, ses études de médecine, qui le conduisent à devenir docteur en médecine et Lauréat de la Faculté de Lyon en 1964. Il devient alors chef de clinique chirurgicale en se rendant régulièrement aux États-Unis à l'Université de Columbus (Ohio) puis de celle de Washington (Seattle) dès 1963. Sur les conseils du professeur Robert Debré, il est nommé, à son retour des États-Unis, professeur à l'Université François Rabelais de Tours.
@@ -545,12 +559,14 @@
           <t>Le général</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Appelé sous les drapeaux en novembre 1958, il rejoint, au mois d’avril suivant, l’Algérie où il sert jusqu’en avril 1961. Durant cette période, alors qu’il est affecté à l’antenne chirurgicale de Bou Saada, il est amené à participer, à différentes opérations qui lui valent l’attribution de la Croix de la valeur militaire avec étoile d’argent et la médaille des Services militaires volontaires. C’est également à titre militaire qu’il est fait chevalier dans l’Ordre national de la Légion d'honneur en 1986.
 I reste impliqué sur les questions de Défense et est conseiller de Défense du préfet d'Indre-et-Loire de 1987 à 1991 puis, à partir de 1997 conseiller « réserves » auprès du directeur central du Service de santé des armées. À ce titre, il est médecin-chef, et l’un des très rares généraux de réserve de l’Armée française. Il est auditeur puis Président (1992-2000) de l'Institut des hautes études de la défense nationale (IHEDN) Région Centre.
-Il est promu au grade de commandeur dans l’Ordre national de la Légion d’honneur[4],[5] le 1er janvier 2011 et sa décoration lui est remise par Michel Bongrand.
-Franc-maçon, il a été vénérable de la loge Villard de Honnecourt de 1993 à 1995, puis de 2001 à 2002[6]. Il est auteur d'un Que sais-je ? sur la Grande Loge nationale française en 2006. Il quitte cette obédience après 30 ans d'appartenance en décembre 2012. Membre d'honneur de la Grande Loge unie d'Angleterre, il conserve cette appartenance[7]
+Il est promu au grade de commandeur dans l’Ordre national de la Légion d’honneur, le 1er janvier 2011 et sa décoration lui est remise par Michel Bongrand.
+Franc-maçon, il a été vénérable de la loge Villard de Honnecourt de 1993 à 1995, puis de 2001 à 2002. Il est auteur d'un Que sais-je ? sur la Grande Loge nationale française en 2006. Il quitte cette obédience après 30 ans d'appartenance en décembre 2012. Membre d'honneur de la Grande Loge unie d'Angleterre, il conserve cette appartenance
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commandeur de la Légion d'honneur
  Croix de la Valeur militaire
